--- a/level-3/hackerrank-phase-3-dynamic-programming/hackerrank-phase-3-dynamic-programming.xlsx
+++ b/level-3/hackerrank-phase-3-dynamic-programming/hackerrank-phase-3-dynamic-programming.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23801"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{567B2FD3-8973-4A79-A90A-FE4A5F9ED846}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{467A4F68-0607-4E57-92BD-9315F42874B7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="713" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="155">
   <si>
     <t>Problem Link</t>
   </si>
@@ -234,13 +234,259 @@
   </si>
   <si>
     <t>Learning Time in (min)</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/challenges/two-subarrays/problem</t>
+  </si>
+  <si>
+    <t>expert</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/challenges/array-construction/problem</t>
+  </si>
+  <si>
+    <t>advanced</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/challenges/lovely-triplets/problem</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/challenges/inverse-rmq/problem</t>
+  </si>
+  <si>
+    <t>hard</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/challenges/beautiful-3-set/problem</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/challenges/kmp-problem/problem</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/challenges/separate-the-chocolate/problem</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/challenges/hard-drive-disks/problem</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/challenges/count-ways-1/problem</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/challenges/happy-king/problem</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/challenges/divisible-numbers/problem</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/challenges/count-scorecards/problem</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/challenges/lucky-numbers/problem</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/challenges/suffix-rotation/problem</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/challenges/counting-road-networks/problem</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/challenges/super-kth-lis</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/challenges/dortmund-dilemma</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/challenges/unique-divide-and-conquer</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/challenges/best-spot/problem</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/challenges/vim-war/problem</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/challenges/tree-pruning/problem</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/challenges/the-blacklist/problem</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/challenges/find-the-seed/problem</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/challenges/unfair-game/problem</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/challenges/robot/problem</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/challenges/modify-the-sequence/problem</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/challenges/mining/problem</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/challenges/dorsey-thief/problem</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/challenges/hyper-strings/problem</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/challenges/fairy-chess/problem</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/challenges/billboards/problem</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/challenges/requirement/problem</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/challenges/points-in-a-plane/problem</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/challenges/shashank-and-palindromic-strings/problem</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/challenges/longest-increasing-subsequent/problem</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/challenges/ones-and-twos/problem</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/challenges/oil-well/problem</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/challenges/p-sequences/problem</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/challenges/longest-mod-path/problem</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/challenges/zurikela/problem</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/challenges/police-operation/problem</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/challenges/square-subsequences/problem</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/challenges/longest-palindromic-subsequence/problem</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/challenges/newyear-present/problem</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/challenges/gcd-matrix/problem</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/challenges/covering-the-stains/problem</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/challenges/beautiful-string/problem</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/challenges/road-maintenance/problem</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/challenges/clues-on-a-binary-path/problem</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/challenges/a-super-hero/problem</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/challenges/animal-transport/problem</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/challenges/turn-off-the-lights/problem</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/challenges/queens-on-board/problem</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/challenges/hexagonal-grid/problem</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/challenges/superman-celebrates-diwali/problem</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/challenges/far-vertices/problem</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/challenges/string-reduction/problem</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/challenges/black-n-white-tree-1/problem</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/challenges/matrix-land/problem</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/challenges/choosing-white-balls/problem</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/challenges/taras-beautiful-permutations/problem</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/challenges/alien-languages/problem</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/challenges/brick-tiling/problem</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/challenges/sherlocks-array-merging-algorithm/problem</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/challenges/angry-children-2/problem</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/challenges/decibinary-numbers/problem</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/challenges/hamming-distance/problem</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/challenges/iterate-it/problem</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/challenges/xor-subsequence/problem</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/challenges/xor-key/problem</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/challenges/changing-bits/problem</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/challenges/2s-complement/problem</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/challenges/pmix/problem</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/challenges/maximizing-the-function/problem</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/challenges/stonegame/problem</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/challenges/manipulative-numbers/problem</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/challenges/string-transmission/problem</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/challenges/xor-matrix/problem</t>
+  </si>
+  <si>
+    <t>https://www.hackerrank.com/challenges/xoring-ninja/problem</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -305,6 +551,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -386,7 +639,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -425,6 +678,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="10" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -441,6 +697,15 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="9" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="9" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="9" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -818,7 +1083,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J96"/>
+  <dimension ref="A1:J141"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -838,83 +1103,83 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="F1" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="G1" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="H1" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="17" t="s">
+      <c r="I1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="14" t="s">
+      <c r="J1" s="21" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="16"/>
-      <c r="B2" s="16"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="15"/>
+      <c r="A2" s="17"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="22"/>
     </row>
     <row r="3" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="15"/>
-      <c r="B3" s="15"/>
+      <c r="A3" s="16"/>
+      <c r="B3" s="16"/>
       <c r="C3" s="4" t="e">
-        <f>AVERAGE(C4:C96)</f>
+        <f t="shared" ref="C3:H3" si="0">AVERAGE(C4:C135)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D3" s="4" t="e">
-        <f>AVERAGE(D4:D96)</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E3" s="4" t="e">
-        <f>AVERAGE(E4:E96)</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F3" s="4" t="e">
-        <f>AVERAGE(F4:F96)</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G3" s="4" t="e">
-        <f>AVERAGE(G4:G96)</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H3" s="4">
-        <f>AVERAGE(H4:H96)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I3" s="4">
         <f>COUNTA(I4:I772)</f>
         <v>0</v>
       </c>
-      <c r="J3" s="4">
+      <c r="J3" s="23">
         <f>COUNTA(J4:J772)</f>
-        <v>58</v>
+        <v>138</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1014,7 +1279,7 @@
       <c r="F8" s="6"/>
       <c r="G8" s="6"/>
       <c r="H8" s="5">
-        <f t="shared" ref="H8:H56" si="0">SUM(C8:G8)</f>
+        <f t="shared" ref="H8:H69" si="1">SUM(C8:G8)</f>
         <v>0</v>
       </c>
       <c r="I8" s="12"/>
@@ -1035,7 +1300,7 @@
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
       <c r="H9" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I9" s="12"/>
@@ -1056,7 +1321,7 @@
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
       <c r="H10" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I10" s="12"/>
@@ -1077,7 +1342,7 @@
       <c r="F11" s="6"/>
       <c r="G11" s="6"/>
       <c r="H11" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I11" s="12"/>
@@ -1098,7 +1363,7 @@
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
       <c r="H12" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I12" s="12"/>
@@ -1119,7 +1384,7 @@
       <c r="F13" s="6"/>
       <c r="G13" s="6"/>
       <c r="H13" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I13" s="12"/>
@@ -1140,7 +1405,7 @@
       <c r="F14" s="6"/>
       <c r="G14" s="6"/>
       <c r="H14" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I14" s="12"/>
@@ -1161,7 +1426,7 @@
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
       <c r="H15" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I15" s="12"/>
@@ -1182,7 +1447,7 @@
       <c r="F16" s="6"/>
       <c r="G16" s="6"/>
       <c r="H16" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I16" s="12"/>
@@ -1203,7 +1468,7 @@
       <c r="F17" s="6"/>
       <c r="G17" s="6"/>
       <c r="H17" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I17" s="12"/>
@@ -1213,275 +1478,275 @@
     </row>
     <row r="18" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>10</v>
+        <v>79</v>
       </c>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
-      <c r="H18" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I18" s="12"/>
+      <c r="H18" s="14">
+        <f t="shared" ref="H18:H30" si="2">SUM(C18:G18)</f>
+        <v>0</v>
+      </c>
+      <c r="I18" s="3"/>
       <c r="J18" s="9" t="s">
-        <v>26</v>
+        <v>154</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I19" s="12"/>
+        <v>79</v>
+      </c>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I19" s="3"/>
       <c r="J19" s="9" t="s">
-        <v>27</v>
+        <v>153</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I20" s="12"/>
+        <v>79</v>
+      </c>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I20" s="3"/>
       <c r="J20" s="9" t="s">
-        <v>28</v>
+        <v>152</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>10</v>
+        <v>79</v>
       </c>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
-      <c r="H21" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I21" s="12"/>
+      <c r="H21" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I21" s="3"/>
       <c r="J21" s="9" t="s">
-        <v>29</v>
+        <v>151</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>10</v>
+        <v>79</v>
       </c>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
       <c r="E22" s="7"/>
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
-      <c r="H22" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I22" s="12"/>
+      <c r="H22" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I22" s="3"/>
       <c r="J22" s="9" t="s">
-        <v>30</v>
+        <v>150</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I23" s="12"/>
+        <v>79</v>
+      </c>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I23" s="3"/>
       <c r="J23" s="9" t="s">
-        <v>31</v>
+        <v>149</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>10</v>
+        <v>79</v>
       </c>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
       <c r="E24" s="7"/>
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
-      <c r="H24" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I24" s="12"/>
+      <c r="H24" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I24" s="3"/>
       <c r="J24" s="9" t="s">
-        <v>32</v>
+        <v>148</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I25" s="12"/>
+        <v>76</v>
+      </c>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I25" s="3"/>
       <c r="J25" s="9" t="s">
-        <v>33</v>
+        <v>147</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>10</v>
+        <v>76</v>
       </c>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
       <c r="E26" s="7"/>
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
-      <c r="H26" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I26" s="12"/>
+      <c r="H26" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I26" s="3"/>
       <c r="J26" s="9" t="s">
-        <v>34</v>
+        <v>146</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I27" s="13"/>
-      <c r="J27" s="10" t="s">
-        <v>35</v>
+        <v>76</v>
+      </c>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I27" s="3"/>
+      <c r="J27" s="9" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="6"/>
-      <c r="H28" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I28" s="13"/>
-      <c r="J28" s="10" t="s">
-        <v>36</v>
+        <v>76</v>
+      </c>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I28" s="3"/>
+      <c r="J28" s="9" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
-      <c r="H29" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I29" s="13"/>
-      <c r="J29" s="10" t="s">
-        <v>37</v>
+        <v>74</v>
+      </c>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I29" s="3"/>
+      <c r="J29" s="9" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="6"/>
-      <c r="H30" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I30" s="13"/>
-      <c r="J30" s="10" t="s">
-        <v>38</v>
+        <v>74</v>
+      </c>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I30" s="3"/>
+      <c r="J30" s="9" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1497,12 +1762,12 @@
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
       <c r="H31" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I31" s="13"/>
-      <c r="J31" s="10" t="s">
-        <v>39</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I31" s="12"/>
+      <c r="J31" s="9" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1512,18 +1777,18 @@
       <c r="B32" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C32" s="7"/>
-      <c r="D32" s="7"/>
-      <c r="E32" s="7"/>
-      <c r="F32" s="7"/>
-      <c r="G32" s="7"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
       <c r="H32" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I32" s="13"/>
-      <c r="J32" s="10" t="s">
-        <v>40</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I32" s="12"/>
+      <c r="J32" s="9" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1533,18 +1798,18 @@
       <c r="B33" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C33" s="7"/>
-      <c r="D33" s="7"/>
-      <c r="E33" s="7"/>
-      <c r="F33" s="7"/>
-      <c r="G33" s="7"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
       <c r="H33" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I33" s="13"/>
-      <c r="J33" s="10" t="s">
-        <v>41</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I33" s="12"/>
+      <c r="J33" s="9" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1560,12 +1825,12 @@
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
       <c r="H34" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I34" s="13"/>
-      <c r="J34" s="10" t="s">
-        <v>42</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I34" s="12"/>
+      <c r="J34" s="9" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1575,18 +1840,18 @@
       <c r="B35" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C35" s="6"/>
-      <c r="D35" s="6"/>
-      <c r="E35" s="6"/>
-      <c r="F35" s="6"/>
-      <c r="G35" s="6"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7"/>
       <c r="H35" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I35" s="13"/>
-      <c r="J35" s="10" t="s">
-        <v>43</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I35" s="12"/>
+      <c r="J35" s="9" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1596,18 +1861,18 @@
       <c r="B36" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C36" s="7"/>
-      <c r="D36" s="7"/>
-      <c r="E36" s="7"/>
-      <c r="F36" s="7"/>
-      <c r="G36" s="7"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="6"/>
       <c r="H36" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I36" s="13"/>
-      <c r="J36" s="10" t="s">
-        <v>44</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I36" s="12"/>
+      <c r="J36" s="9" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1617,18 +1882,18 @@
       <c r="B37" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="7"/>
       <c r="H37" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I37" s="13"/>
-      <c r="J37" s="10" t="s">
-        <v>45</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I37" s="12"/>
+      <c r="J37" s="9" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1644,12 +1909,12 @@
       <c r="F38" s="6"/>
       <c r="G38" s="6"/>
       <c r="H38" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I38" s="13"/>
-      <c r="J38" s="10" t="s">
-        <v>46</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I38" s="12"/>
+      <c r="J38" s="9" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="39" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1659,18 +1924,18 @@
       <c r="B39" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C39" s="6"/>
-      <c r="D39" s="6"/>
-      <c r="E39" s="6"/>
-      <c r="F39" s="6"/>
-      <c r="G39" s="6"/>
+      <c r="C39" s="7"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="7"/>
+      <c r="F39" s="7"/>
+      <c r="G39" s="7"/>
       <c r="H39" s="5">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I39" s="13"/>
-      <c r="J39" s="10" t="s">
-        <v>47</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I39" s="12"/>
+      <c r="J39" s="9" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="40" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1686,12 +1951,12 @@
       <c r="F40" s="6"/>
       <c r="G40" s="6"/>
       <c r="H40" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I40" s="13"/>
       <c r="J40" s="10" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1701,18 +1966,18 @@
       <c r="B41" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C41" s="7"/>
-      <c r="D41" s="7"/>
-      <c r="E41" s="7"/>
-      <c r="F41" s="7"/>
-      <c r="G41" s="7"/>
+      <c r="C41" s="6"/>
+      <c r="D41" s="6"/>
+      <c r="E41" s="6"/>
+      <c r="F41" s="6"/>
+      <c r="G41" s="6"/>
       <c r="H41" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I41" s="13"/>
       <c r="J41" s="10" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
     </row>
     <row r="42" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1722,18 +1987,18 @@
       <c r="B42" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C42" s="7"/>
-      <c r="D42" s="7"/>
-      <c r="E42" s="7"/>
-      <c r="F42" s="7"/>
-      <c r="G42" s="7"/>
+      <c r="C42" s="6"/>
+      <c r="D42" s="6"/>
+      <c r="E42" s="6"/>
+      <c r="F42" s="6"/>
+      <c r="G42" s="6"/>
       <c r="H42" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I42" s="13"/>
       <c r="J42" s="10" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
     </row>
     <row r="43" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1743,18 +2008,18 @@
       <c r="B43" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C43" s="7"/>
-      <c r="D43" s="7"/>
-      <c r="E43" s="7"/>
-      <c r="F43" s="7"/>
-      <c r="G43" s="7"/>
+      <c r="C43" s="6"/>
+      <c r="D43" s="6"/>
+      <c r="E43" s="6"/>
+      <c r="F43" s="6"/>
+      <c r="G43" s="6"/>
       <c r="H43" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I43" s="13"/>
       <c r="J43" s="10" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1770,12 +2035,12 @@
       <c r="F44" s="7"/>
       <c r="G44" s="7"/>
       <c r="H44" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I44" s="13"/>
       <c r="J44" s="10" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1791,12 +2056,12 @@
       <c r="F45" s="7"/>
       <c r="G45" s="7"/>
       <c r="H45" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I45" s="13"/>
       <c r="J45" s="10" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
     </row>
     <row r="46" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1806,18 +2071,18 @@
       <c r="B46" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C46" s="6"/>
-      <c r="D46" s="6"/>
-      <c r="E46" s="6"/>
-      <c r="F46" s="6"/>
-      <c r="G46" s="6"/>
+      <c r="C46" s="7"/>
+      <c r="D46" s="7"/>
+      <c r="E46" s="7"/>
+      <c r="F46" s="7"/>
+      <c r="G46" s="7"/>
       <c r="H46" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I46" s="13"/>
       <c r="J46" s="10" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
     </row>
     <row r="47" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1833,12 +2098,12 @@
       <c r="F47" s="7"/>
       <c r="G47" s="7"/>
       <c r="H47" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I47" s="13"/>
       <c r="J47" s="10" t="s">
-        <v>55</v>
+        <v>42</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1854,12 +2119,12 @@
       <c r="F48" s="6"/>
       <c r="G48" s="6"/>
       <c r="H48" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I48" s="13"/>
       <c r="J48" s="10" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
     </row>
     <row r="49" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1869,18 +2134,18 @@
       <c r="B49" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C49" s="6"/>
-      <c r="D49" s="6"/>
-      <c r="E49" s="6"/>
-      <c r="F49" s="6"/>
-      <c r="G49" s="6"/>
+      <c r="C49" s="7"/>
+      <c r="D49" s="7"/>
+      <c r="E49" s="7"/>
+      <c r="F49" s="7"/>
+      <c r="G49" s="7"/>
       <c r="H49" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I49" s="13"/>
       <c r="J49" s="10" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
     </row>
     <row r="50" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1896,12 +2161,12 @@
       <c r="F50" s="6"/>
       <c r="G50" s="6"/>
       <c r="H50" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I50" s="13"/>
       <c r="J50" s="10" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
     </row>
     <row r="51" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1917,12 +2182,12 @@
       <c r="F51" s="6"/>
       <c r="G51" s="6"/>
       <c r="H51" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I51" s="13"/>
       <c r="J51" s="10" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
     </row>
     <row r="52" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1932,18 +2197,18 @@
       <c r="B52" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C52" s="7"/>
-      <c r="D52" s="7"/>
-      <c r="E52" s="7"/>
-      <c r="F52" s="7"/>
-      <c r="G52" s="7"/>
+      <c r="C52" s="6"/>
+      <c r="D52" s="6"/>
+      <c r="E52" s="6"/>
+      <c r="F52" s="6"/>
+      <c r="G52" s="6"/>
       <c r="H52" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I52" s="13"/>
       <c r="J52" s="10" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
     </row>
     <row r="53" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1953,18 +2218,18 @@
       <c r="B53" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C53" s="7"/>
-      <c r="D53" s="7"/>
-      <c r="E53" s="7"/>
-      <c r="F53" s="7"/>
-      <c r="G53" s="7"/>
+      <c r="C53" s="6"/>
+      <c r="D53" s="6"/>
+      <c r="E53" s="6"/>
+      <c r="F53" s="6"/>
+      <c r="G53" s="6"/>
       <c r="H53" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I53" s="13"/>
       <c r="J53" s="10" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
     </row>
     <row r="54" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1974,18 +2239,18 @@
       <c r="B54" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C54" s="6"/>
-      <c r="D54" s="6"/>
-      <c r="E54" s="6"/>
-      <c r="F54" s="6"/>
-      <c r="G54" s="6"/>
+      <c r="C54" s="7"/>
+      <c r="D54" s="7"/>
+      <c r="E54" s="7"/>
+      <c r="F54" s="7"/>
+      <c r="G54" s="7"/>
       <c r="H54" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I54" s="13"/>
       <c r="J54" s="10" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
     </row>
     <row r="55" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2001,12 +2266,12 @@
       <c r="F55" s="7"/>
       <c r="G55" s="7"/>
       <c r="H55" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I55" s="13"/>
       <c r="J55" s="10" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
     </row>
     <row r="56" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2022,38 +2287,38 @@
       <c r="F56" s="7"/>
       <c r="G56" s="7"/>
       <c r="H56" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I56" s="13"/>
       <c r="J56" s="10" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
     </row>
     <row r="57" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="3" t="s">
-        <v>65</v>
+        <v>25</v>
       </c>
       <c r="B57" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C57" s="6"/>
-      <c r="D57" s="6"/>
-      <c r="E57" s="6"/>
-      <c r="F57" s="6"/>
-      <c r="G57" s="6"/>
+      <c r="C57" s="7"/>
+      <c r="D57" s="7"/>
+      <c r="E57" s="7"/>
+      <c r="F57" s="7"/>
+      <c r="G57" s="7"/>
       <c r="H57" s="5">
-        <f t="shared" ref="H57:H61" si="1">SUM(C57:G57)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I57" s="13"/>
       <c r="J57" s="10" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
     </row>
     <row r="58" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="3" t="s">
-        <v>65</v>
+        <v>25</v>
       </c>
       <c r="B58" s="3" t="s">
         <v>10</v>
@@ -2069,33 +2334,33 @@
       </c>
       <c r="I58" s="13"/>
       <c r="J58" s="10" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
     </row>
     <row r="59" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="3" t="s">
-        <v>65</v>
+        <v>25</v>
       </c>
       <c r="B59" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C59" s="7"/>
-      <c r="D59" s="7"/>
-      <c r="E59" s="7"/>
-      <c r="F59" s="7"/>
-      <c r="G59" s="7"/>
+      <c r="C59" s="6"/>
+      <c r="D59" s="6"/>
+      <c r="E59" s="6"/>
+      <c r="F59" s="6"/>
+      <c r="G59" s="6"/>
       <c r="H59" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I59" s="13"/>
       <c r="J59" s="10" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
     </row>
     <row r="60" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="3" t="s">
-        <v>65</v>
+        <v>25</v>
       </c>
       <c r="B60" s="3" t="s">
         <v>10</v>
@@ -2111,309 +2376,1709 @@
       </c>
       <c r="I60" s="13"/>
       <c r="J60" s="10" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
     </row>
     <row r="61" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="3" t="s">
-        <v>65</v>
+        <v>25</v>
       </c>
       <c r="B61" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C61" s="7"/>
-      <c r="D61" s="7"/>
-      <c r="E61" s="7"/>
-      <c r="F61" s="7"/>
-      <c r="G61" s="7"/>
+      <c r="C61" s="6"/>
+      <c r="D61" s="6"/>
+      <c r="E61" s="6"/>
+      <c r="F61" s="6"/>
+      <c r="G61" s="6"/>
       <c r="H61" s="5">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I61" s="13"/>
       <c r="J61" s="10" t="s">
-        <v>70</v>
+        <v>56</v>
       </c>
     </row>
     <row r="62" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C62" s="7"/>
-      <c r="D62" s="7"/>
-      <c r="E62" s="7"/>
-      <c r="F62" s="7"/>
-      <c r="G62" s="7"/>
-      <c r="H62" s="5"/>
+      <c r="A62" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C62" s="6"/>
+      <c r="D62" s="6"/>
+      <c r="E62" s="6"/>
+      <c r="F62" s="6"/>
+      <c r="G62" s="6"/>
+      <c r="H62" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I62" s="13"/>
+      <c r="J62" s="10" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="63" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C63" s="7"/>
-      <c r="D63" s="7"/>
-      <c r="E63" s="7"/>
-      <c r="F63" s="7"/>
-      <c r="G63" s="7"/>
-      <c r="H63" s="5"/>
+      <c r="A63" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C63" s="6"/>
+      <c r="D63" s="6"/>
+      <c r="E63" s="6"/>
+      <c r="F63" s="6"/>
+      <c r="G63" s="6"/>
+      <c r="H63" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I63" s="13"/>
+      <c r="J63" s="10" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="64" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="C64" s="6"/>
       <c r="D64" s="6"/>
       <c r="E64" s="6"/>
       <c r="F64" s="6"/>
       <c r="G64" s="6"/>
-      <c r="H64" s="5"/>
-    </row>
-    <row r="65" spans="3:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C65" s="6"/>
-      <c r="D65" s="6"/>
-      <c r="E65" s="6"/>
-      <c r="F65" s="6"/>
-      <c r="G65" s="6"/>
-      <c r="H65" s="5"/>
-    </row>
-    <row r="66" spans="3:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H64" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I64" s="13"/>
+      <c r="J64" s="10" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C65" s="7"/>
+      <c r="D65" s="7"/>
+      <c r="E65" s="7"/>
+      <c r="F65" s="7"/>
+      <c r="G65" s="7"/>
+      <c r="H65" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I65" s="13"/>
+      <c r="J65" s="10" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="C66" s="7"/>
       <c r="D66" s="7"/>
       <c r="E66" s="7"/>
       <c r="F66" s="7"/>
       <c r="G66" s="7"/>
-      <c r="H66" s="5"/>
-    </row>
-    <row r="67" spans="3:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C67" s="7"/>
-      <c r="D67" s="7"/>
-      <c r="E67" s="7"/>
-      <c r="F67" s="7"/>
-      <c r="G67" s="7"/>
-      <c r="H67" s="5"/>
-    </row>
-    <row r="68" spans="3:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H66" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I66" s="13"/>
+      <c r="J66" s="10" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C67" s="6"/>
+      <c r="D67" s="6"/>
+      <c r="E67" s="6"/>
+      <c r="F67" s="6"/>
+      <c r="G67" s="6"/>
+      <c r="H67" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I67" s="13"/>
+      <c r="J67" s="10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="C68" s="7"/>
       <c r="D68" s="7"/>
       <c r="E68" s="7"/>
       <c r="F68" s="7"/>
       <c r="G68" s="7"/>
-      <c r="H68" s="5"/>
-    </row>
-    <row r="69" spans="3:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C69" s="6"/>
-      <c r="D69" s="6"/>
-      <c r="E69" s="6"/>
-      <c r="F69" s="6"/>
-      <c r="G69" s="6"/>
-      <c r="H69" s="5"/>
-    </row>
-    <row r="70" spans="3:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C70" s="6"/>
-      <c r="D70" s="6"/>
-      <c r="E70" s="6"/>
-      <c r="F70" s="6"/>
-      <c r="G70" s="6"/>
-      <c r="H70" s="5"/>
-    </row>
-    <row r="71" spans="3:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H68" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I68" s="13"/>
+      <c r="J68" s="10" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C69" s="7"/>
+      <c r="D69" s="7"/>
+      <c r="E69" s="7"/>
+      <c r="F69" s="7"/>
+      <c r="G69" s="7"/>
+      <c r="H69" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I69" s="13"/>
+      <c r="J69" s="10" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C70" s="7"/>
+      <c r="D70" s="7"/>
+      <c r="E70" s="7"/>
+      <c r="F70" s="7"/>
+      <c r="G70" s="7"/>
+      <c r="H70" s="14">
+        <f t="shared" ref="H70:H101" si="3">SUM(C70:G70)</f>
+        <v>0</v>
+      </c>
+      <c r="I70" s="13"/>
+      <c r="J70" s="10" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>79</v>
+      </c>
       <c r="C71" s="7"/>
       <c r="D71" s="7"/>
       <c r="E71" s="7"/>
       <c r="F71" s="7"/>
       <c r="G71" s="7"/>
-      <c r="H71" s="5"/>
-    </row>
-    <row r="72" spans="3:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H71" s="14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I71" s="13"/>
+      <c r="J71" s="10" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>79</v>
+      </c>
       <c r="C72" s="7"/>
       <c r="D72" s="7"/>
       <c r="E72" s="7"/>
       <c r="F72" s="7"/>
       <c r="G72" s="7"/>
-      <c r="H72" s="5"/>
-    </row>
-    <row r="73" spans="3:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H72" s="14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I72" s="13"/>
+      <c r="J72" s="10" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>79</v>
+      </c>
       <c r="C73" s="7"/>
       <c r="D73" s="7"/>
       <c r="E73" s="7"/>
       <c r="F73" s="7"/>
       <c r="G73" s="7"/>
-      <c r="H73" s="5"/>
-    </row>
-    <row r="74" spans="3:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H73" s="14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I73" s="13"/>
+      <c r="J73" s="10" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>79</v>
+      </c>
       <c r="C74" s="7"/>
       <c r="D74" s="7"/>
       <c r="E74" s="7"/>
       <c r="F74" s="7"/>
       <c r="G74" s="7"/>
-      <c r="H74" s="5"/>
-    </row>
-    <row r="75" spans="3:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C75" s="6"/>
-      <c r="D75" s="6"/>
-      <c r="E75" s="6"/>
-      <c r="F75" s="6"/>
-      <c r="G75" s="6"/>
-      <c r="H75" s="5"/>
-    </row>
-    <row r="76" spans="3:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H74" s="14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I74" s="13"/>
+      <c r="J74" s="10" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C75" s="7"/>
+      <c r="D75" s="7"/>
+      <c r="E75" s="7"/>
+      <c r="F75" s="7"/>
+      <c r="G75" s="7"/>
+      <c r="H75" s="14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I75" s="13"/>
+      <c r="J75" s="10" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>79</v>
+      </c>
       <c r="C76" s="7"/>
       <c r="D76" s="7"/>
       <c r="E76" s="7"/>
       <c r="F76" s="7"/>
       <c r="G76" s="7"/>
-      <c r="H76" s="5"/>
-    </row>
-    <row r="77" spans="3:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H76" s="14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I76" s="13"/>
+      <c r="J76" s="10" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>79</v>
+      </c>
       <c r="C77" s="7"/>
       <c r="D77" s="7"/>
       <c r="E77" s="7"/>
       <c r="F77" s="7"/>
       <c r="G77" s="7"/>
-      <c r="H77" s="5"/>
-    </row>
-    <row r="78" spans="3:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H77" s="14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I77" s="13"/>
+      <c r="J77" s="10" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>79</v>
+      </c>
       <c r="C78" s="7"/>
       <c r="D78" s="7"/>
       <c r="E78" s="7"/>
       <c r="F78" s="7"/>
       <c r="G78" s="7"/>
-      <c r="H78" s="5"/>
-    </row>
-    <row r="79" spans="3:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H78" s="14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I78" s="13"/>
+      <c r="J78" s="10" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>79</v>
+      </c>
       <c r="C79" s="7"/>
       <c r="D79" s="7"/>
       <c r="E79" s="7"/>
       <c r="F79" s="7"/>
       <c r="G79" s="7"/>
-      <c r="H79" s="5"/>
-    </row>
-    <row r="80" spans="3:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H79" s="14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I79" s="13"/>
+      <c r="J79" s="10" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>79</v>
+      </c>
       <c r="C80" s="7"/>
       <c r="D80" s="7"/>
       <c r="E80" s="7"/>
       <c r="F80" s="7"/>
       <c r="G80" s="7"/>
-      <c r="H80" s="5"/>
-    </row>
-    <row r="81" spans="3:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H80" s="14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I80" s="13"/>
+      <c r="J80" s="10" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>79</v>
+      </c>
       <c r="C81" s="7"/>
       <c r="D81" s="7"/>
       <c r="E81" s="7"/>
       <c r="F81" s="7"/>
       <c r="G81" s="7"/>
-      <c r="H81" s="5"/>
-    </row>
-    <row r="82" spans="3:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H81" s="14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I81" s="13"/>
+      <c r="J81" s="10" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>79</v>
+      </c>
       <c r="C82" s="7"/>
       <c r="D82" s="7"/>
       <c r="E82" s="7"/>
       <c r="F82" s="7"/>
       <c r="G82" s="7"/>
-      <c r="H82" s="5"/>
-    </row>
-    <row r="83" spans="3:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H82" s="14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I82" s="13"/>
+      <c r="J82" s="10" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>79</v>
+      </c>
       <c r="C83" s="7"/>
       <c r="D83" s="7"/>
       <c r="E83" s="7"/>
       <c r="F83" s="7"/>
       <c r="G83" s="7"/>
-      <c r="H83" s="5"/>
-    </row>
-    <row r="84" spans="3:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H83" s="14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I83" s="13"/>
+      <c r="J83" s="10" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>79</v>
+      </c>
       <c r="C84" s="7"/>
       <c r="D84" s="7"/>
       <c r="E84" s="7"/>
       <c r="F84" s="7"/>
       <c r="G84" s="7"/>
-      <c r="H84" s="5"/>
-    </row>
-    <row r="85" spans="3:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H84" s="14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I84" s="13"/>
+      <c r="J84" s="10" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>79</v>
+      </c>
       <c r="C85" s="7"/>
       <c r="D85" s="7"/>
       <c r="E85" s="7"/>
       <c r="F85" s="7"/>
       <c r="G85" s="7"/>
-      <c r="H85" s="5"/>
-    </row>
-    <row r="86" spans="3:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H85" s="14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I85" s="13"/>
+      <c r="J85" s="10" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>79</v>
+      </c>
       <c r="C86" s="7"/>
       <c r="D86" s="7"/>
       <c r="E86" s="7"/>
       <c r="F86" s="7"/>
       <c r="G86" s="7"/>
-      <c r="H86" s="5"/>
-    </row>
-    <row r="87" spans="3:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H86" s="14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I86" s="13"/>
+      <c r="J86" s="10" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B87" s="3" t="s">
+        <v>79</v>
+      </c>
       <c r="C87" s="7"/>
       <c r="D87" s="7"/>
       <c r="E87" s="7"/>
       <c r="F87" s="7"/>
       <c r="G87" s="7"/>
-      <c r="H87" s="5"/>
-    </row>
-    <row r="88" spans="3:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H87" s="14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I87" s="13"/>
+      <c r="J87" s="10" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B88" s="3" t="s">
+        <v>79</v>
+      </c>
       <c r="C88" s="7"/>
       <c r="D88" s="7"/>
       <c r="E88" s="7"/>
       <c r="F88" s="7"/>
       <c r="G88" s="7"/>
-      <c r="H88" s="5"/>
-    </row>
-    <row r="89" spans="3:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H88" s="14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I88" s="13"/>
+      <c r="J88" s="10" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B89" s="3" t="s">
+        <v>79</v>
+      </c>
       <c r="C89" s="7"/>
       <c r="D89" s="7"/>
       <c r="E89" s="7"/>
       <c r="F89" s="7"/>
       <c r="G89" s="7"/>
-      <c r="H89" s="5"/>
-    </row>
-    <row r="90" spans="3:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H89" s="14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I89" s="13"/>
+      <c r="J89" s="10" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>79</v>
+      </c>
       <c r="C90" s="7"/>
       <c r="D90" s="7"/>
       <c r="E90" s="7"/>
       <c r="F90" s="7"/>
       <c r="G90" s="7"/>
-      <c r="H90" s="5"/>
-    </row>
-    <row r="91" spans="3:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H90" s="14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I90" s="13"/>
+      <c r="J90" s="10" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>79</v>
+      </c>
       <c r="C91" s="7"/>
       <c r="D91" s="7"/>
       <c r="E91" s="7"/>
       <c r="F91" s="7"/>
       <c r="G91" s="7"/>
-      <c r="H91" s="5"/>
-    </row>
-    <row r="92" spans="3:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H91" s="14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I91" s="13"/>
+      <c r="J91" s="10" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>79</v>
+      </c>
       <c r="C92" s="7"/>
       <c r="D92" s="7"/>
       <c r="E92" s="7"/>
       <c r="F92" s="7"/>
       <c r="G92" s="7"/>
-      <c r="H92" s="5"/>
-    </row>
-    <row r="93" spans="3:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H92" s="14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I92" s="13"/>
+      <c r="J92" s="10" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>79</v>
+      </c>
       <c r="C93" s="7"/>
       <c r="D93" s="7"/>
       <c r="E93" s="7"/>
       <c r="F93" s="7"/>
       <c r="G93" s="7"/>
-      <c r="H93" s="5"/>
-    </row>
-    <row r="94" spans="3:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H93" s="14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I93" s="13"/>
+      <c r="J93" s="10" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>79</v>
+      </c>
       <c r="C94" s="7"/>
       <c r="D94" s="7"/>
       <c r="E94" s="7"/>
       <c r="F94" s="7"/>
       <c r="G94" s="7"/>
-      <c r="H94" s="5"/>
-    </row>
-    <row r="95" spans="3:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H94" s="14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I94" s="13"/>
+      <c r="J94" s="10" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>79</v>
+      </c>
       <c r="C95" s="7"/>
       <c r="D95" s="7"/>
       <c r="E95" s="7"/>
       <c r="F95" s="7"/>
       <c r="G95" s="7"/>
-      <c r="H95" s="5"/>
-    </row>
-    <row r="96" spans="3:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="H95" s="14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I95" s="13"/>
+      <c r="J95" s="10" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B96" s="3" t="s">
+        <v>79</v>
+      </c>
       <c r="C96" s="7"/>
       <c r="D96" s="7"/>
       <c r="E96" s="7"/>
       <c r="F96" s="7"/>
       <c r="G96" s="7"/>
-      <c r="H96" s="5"/>
+      <c r="H96" s="14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I96" s="13"/>
+      <c r="J96" s="10" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B97" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C97" s="7"/>
+      <c r="D97" s="7"/>
+      <c r="E97" s="7"/>
+      <c r="F97" s="7"/>
+      <c r="G97" s="7"/>
+      <c r="H97" s="14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I97" s="13"/>
+      <c r="J97" s="10" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B98" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C98" s="7"/>
+      <c r="D98" s="7"/>
+      <c r="E98" s="7"/>
+      <c r="F98" s="7"/>
+      <c r="G98" s="7"/>
+      <c r="H98" s="14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I98" s="13"/>
+      <c r="J98" s="10" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B99" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C99" s="7"/>
+      <c r="D99" s="7"/>
+      <c r="E99" s="7"/>
+      <c r="F99" s="7"/>
+      <c r="G99" s="7"/>
+      <c r="H99" s="14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I99" s="13"/>
+      <c r="J99" s="10" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B100" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C100" s="7"/>
+      <c r="D100" s="7"/>
+      <c r="E100" s="7"/>
+      <c r="F100" s="7"/>
+      <c r="G100" s="7"/>
+      <c r="H100" s="14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I100" s="13"/>
+      <c r="J100" s="10" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B101" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C101" s="7"/>
+      <c r="D101" s="7"/>
+      <c r="E101" s="7"/>
+      <c r="F101" s="7"/>
+      <c r="G101" s="7"/>
+      <c r="H101" s="14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I101" s="13"/>
+      <c r="J101" s="10" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A102" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B102" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C102" s="7"/>
+      <c r="D102" s="7"/>
+      <c r="E102" s="7"/>
+      <c r="F102" s="7"/>
+      <c r="G102" s="7"/>
+      <c r="H102" s="14">
+        <f t="shared" ref="H102:H130" si="4">SUM(C102:G102)</f>
+        <v>0</v>
+      </c>
+      <c r="I102" s="13"/>
+      <c r="J102" s="10" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A103" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B103" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C103" s="7"/>
+      <c r="D103" s="7"/>
+      <c r="E103" s="7"/>
+      <c r="F103" s="7"/>
+      <c r="G103" s="7"/>
+      <c r="H103" s="14">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I103" s="13"/>
+      <c r="J103" s="10" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A104" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B104" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C104" s="7"/>
+      <c r="D104" s="7"/>
+      <c r="E104" s="7"/>
+      <c r="F104" s="7"/>
+      <c r="G104" s="7"/>
+      <c r="H104" s="14">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I104" s="13"/>
+      <c r="J104" s="10" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A105" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B105" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C105" s="7"/>
+      <c r="D105" s="7"/>
+      <c r="E105" s="7"/>
+      <c r="F105" s="7"/>
+      <c r="G105" s="7"/>
+      <c r="H105" s="14">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I105" s="13"/>
+      <c r="J105" s="10" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A106" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B106" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C106" s="7"/>
+      <c r="D106" s="7"/>
+      <c r="E106" s="7"/>
+      <c r="F106" s="7"/>
+      <c r="G106" s="7"/>
+      <c r="H106" s="14">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I106" s="13"/>
+      <c r="J106" s="10" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A107" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B107" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C107" s="7"/>
+      <c r="D107" s="7"/>
+      <c r="E107" s="7"/>
+      <c r="F107" s="7"/>
+      <c r="G107" s="7"/>
+      <c r="H107" s="14">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I107" s="13"/>
+      <c r="J107" s="10" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A108" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B108" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C108" s="7"/>
+      <c r="D108" s="7"/>
+      <c r="E108" s="7"/>
+      <c r="F108" s="7"/>
+      <c r="G108" s="7"/>
+      <c r="H108" s="14">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I108" s="13"/>
+      <c r="J108" s="10" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A109" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B109" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C109" s="7"/>
+      <c r="D109" s="7"/>
+      <c r="E109" s="7"/>
+      <c r="F109" s="7"/>
+      <c r="G109" s="7"/>
+      <c r="H109" s="14">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I109" s="13"/>
+      <c r="J109" s="10" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A110" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B110" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C110" s="7"/>
+      <c r="D110" s="7"/>
+      <c r="E110" s="7"/>
+      <c r="F110" s="7"/>
+      <c r="G110" s="7"/>
+      <c r="H110" s="14">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I110" s="13"/>
+      <c r="J110" s="10" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A111" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B111" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C111" s="7"/>
+      <c r="D111" s="7"/>
+      <c r="E111" s="7"/>
+      <c r="F111" s="7"/>
+      <c r="G111" s="7"/>
+      <c r="H111" s="14">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I111" s="13"/>
+      <c r="J111" s="10" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A112" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B112" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C112" s="7"/>
+      <c r="D112" s="7"/>
+      <c r="E112" s="7"/>
+      <c r="F112" s="7"/>
+      <c r="G112" s="7"/>
+      <c r="H112" s="14">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I112" s="13"/>
+      <c r="J112" s="10" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A113" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B113" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C113" s="7"/>
+      <c r="D113" s="7"/>
+      <c r="E113" s="7"/>
+      <c r="F113" s="7"/>
+      <c r="G113" s="7"/>
+      <c r="H113" s="14">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I113" s="13"/>
+      <c r="J113" s="10" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A114" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B114" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C114" s="7"/>
+      <c r="D114" s="7"/>
+      <c r="E114" s="7"/>
+      <c r="F114" s="7"/>
+      <c r="G114" s="7"/>
+      <c r="H114" s="14">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I114" s="13"/>
+      <c r="J114" s="10" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A115" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B115" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C115" s="7"/>
+      <c r="D115" s="7"/>
+      <c r="E115" s="7"/>
+      <c r="F115" s="7"/>
+      <c r="G115" s="7"/>
+      <c r="H115" s="14">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I115" s="13"/>
+      <c r="J115" s="10" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A116" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B116" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C116" s="7"/>
+      <c r="D116" s="7"/>
+      <c r="E116" s="7"/>
+      <c r="F116" s="7"/>
+      <c r="G116" s="7"/>
+      <c r="H116" s="14">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I116" s="13"/>
+      <c r="J116" s="10" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A117" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B117" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C117" s="7"/>
+      <c r="D117" s="7"/>
+      <c r="E117" s="7"/>
+      <c r="F117" s="7"/>
+      <c r="G117" s="7"/>
+      <c r="H117" s="14">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I117" s="13"/>
+      <c r="J117" s="10" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A118" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B118" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C118" s="7"/>
+      <c r="D118" s="7"/>
+      <c r="E118" s="7"/>
+      <c r="F118" s="7"/>
+      <c r="G118" s="7"/>
+      <c r="H118" s="14">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I118" s="13"/>
+      <c r="J118" s="10" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A119" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B119" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C119" s="7"/>
+      <c r="D119" s="7"/>
+      <c r="E119" s="7"/>
+      <c r="F119" s="7"/>
+      <c r="G119" s="7"/>
+      <c r="H119" s="14">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I119" s="13"/>
+      <c r="J119" s="10" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A120" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B120" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C120" s="7"/>
+      <c r="D120" s="7"/>
+      <c r="E120" s="7"/>
+      <c r="F120" s="7"/>
+      <c r="G120" s="7"/>
+      <c r="H120" s="14">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I120" s="13"/>
+      <c r="J120" s="10" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A121" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B121" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C121" s="7"/>
+      <c r="D121" s="7"/>
+      <c r="E121" s="7"/>
+      <c r="F121" s="7"/>
+      <c r="G121" s="7"/>
+      <c r="H121" s="14">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I121" s="13"/>
+      <c r="J121" s="10" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A122" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B122" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C122" s="7"/>
+      <c r="D122" s="7"/>
+      <c r="E122" s="7"/>
+      <c r="F122" s="7"/>
+      <c r="G122" s="7"/>
+      <c r="H122" s="14">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I122" s="13"/>
+      <c r="J122" s="10" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A123" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B123" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C123" s="7"/>
+      <c r="D123" s="7"/>
+      <c r="E123" s="7"/>
+      <c r="F123" s="7"/>
+      <c r="G123" s="7"/>
+      <c r="H123" s="14">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I123" s="13"/>
+      <c r="J123" s="10" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A124" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B124" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C124" s="7"/>
+      <c r="D124" s="7"/>
+      <c r="E124" s="7"/>
+      <c r="F124" s="7"/>
+      <c r="G124" s="7"/>
+      <c r="H124" s="14">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I124" s="13"/>
+      <c r="J124" s="10" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A125" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B125" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C125" s="7"/>
+      <c r="D125" s="7"/>
+      <c r="E125" s="7"/>
+      <c r="F125" s="7"/>
+      <c r="G125" s="7"/>
+      <c r="H125" s="14">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I125" s="13"/>
+      <c r="J125" s="10" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A126" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B126" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C126" s="7"/>
+      <c r="D126" s="7"/>
+      <c r="E126" s="7"/>
+      <c r="F126" s="7"/>
+      <c r="G126" s="7"/>
+      <c r="H126" s="14">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I126" s="13"/>
+      <c r="J126" s="10" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A127" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B127" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C127" s="7"/>
+      <c r="D127" s="7"/>
+      <c r="E127" s="7"/>
+      <c r="F127" s="7"/>
+      <c r="G127" s="7"/>
+      <c r="H127" s="14">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I127" s="13"/>
+      <c r="J127" s="10" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A128" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B128" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C128" s="7"/>
+      <c r="D128" s="7"/>
+      <c r="E128" s="7"/>
+      <c r="F128" s="7"/>
+      <c r="G128" s="7"/>
+      <c r="H128" s="14">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I128" s="13"/>
+      <c r="J128" s="10" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A129" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B129" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C129" s="7"/>
+      <c r="D129" s="7"/>
+      <c r="E129" s="7"/>
+      <c r="F129" s="7"/>
+      <c r="G129" s="7"/>
+      <c r="H129" s="14">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I129" s="13"/>
+      <c r="J129" s="10" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A130" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B130" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C130" s="7"/>
+      <c r="D130" s="7"/>
+      <c r="E130" s="7"/>
+      <c r="F130" s="7"/>
+      <c r="G130" s="7"/>
+      <c r="H130" s="14">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I130" s="13"/>
+      <c r="J130" s="10" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A131" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B131" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C131" s="6"/>
+      <c r="D131" s="6"/>
+      <c r="E131" s="6"/>
+      <c r="F131" s="6"/>
+      <c r="G131" s="6"/>
+      <c r="H131" s="5">
+        <f t="shared" ref="H131:H135" si="5">SUM(C131:G131)</f>
+        <v>0</v>
+      </c>
+      <c r="I131" s="13"/>
+      <c r="J131" s="10" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A132" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B132" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C132" s="7"/>
+      <c r="D132" s="7"/>
+      <c r="E132" s="7"/>
+      <c r="F132" s="7"/>
+      <c r="G132" s="7"/>
+      <c r="H132" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I132" s="13"/>
+      <c r="J132" s="10" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A133" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B133" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C133" s="7"/>
+      <c r="D133" s="7"/>
+      <c r="E133" s="7"/>
+      <c r="F133" s="7"/>
+      <c r="G133" s="7"/>
+      <c r="H133" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I133" s="13"/>
+      <c r="J133" s="10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A134" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B134" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C134" s="7"/>
+      <c r="D134" s="7"/>
+      <c r="E134" s="7"/>
+      <c r="F134" s="7"/>
+      <c r="G134" s="7"/>
+      <c r="H134" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I134" s="13"/>
+      <c r="J134" s="10" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A135" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B135" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C135" s="7"/>
+      <c r="D135" s="7"/>
+      <c r="E135" s="7"/>
+      <c r="F135" s="7"/>
+      <c r="G135" s="7"/>
+      <c r="H135" s="5">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I135" s="13"/>
+      <c r="J135" s="10" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A136" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B136" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C136" s="7"/>
+      <c r="D136" s="7"/>
+      <c r="E136" s="7"/>
+      <c r="F136" s="7"/>
+      <c r="G136" s="7"/>
+      <c r="H136" s="14">
+        <f t="shared" ref="H136:H141" si="6">SUM(C136:G136)</f>
+        <v>0</v>
+      </c>
+      <c r="I136" s="13"/>
+      <c r="J136" s="10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A137" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B137" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C137" s="7"/>
+      <c r="D137" s="7"/>
+      <c r="E137" s="7"/>
+      <c r="F137" s="7"/>
+      <c r="G137" s="7"/>
+      <c r="H137" s="14">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I137" s="13"/>
+      <c r="J137" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A138" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B138" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C138" s="7"/>
+      <c r="D138" s="7"/>
+      <c r="E138" s="7"/>
+      <c r="F138" s="7"/>
+      <c r="G138" s="7"/>
+      <c r="H138" s="14">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I138" s="13"/>
+      <c r="J138" s="10" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A139" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B139" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C139" s="7"/>
+      <c r="D139" s="7"/>
+      <c r="E139" s="7"/>
+      <c r="F139" s="7"/>
+      <c r="G139" s="7"/>
+      <c r="H139" s="14">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I139" s="13"/>
+      <c r="J139" s="10" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A140" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B140" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C140" s="7"/>
+      <c r="D140" s="7"/>
+      <c r="E140" s="7"/>
+      <c r="F140" s="7"/>
+      <c r="G140" s="7"/>
+      <c r="H140" s="14">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I140" s="13"/>
+      <c r="J140" s="10" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A141" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B141" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C141" s="7"/>
+      <c r="D141" s="7"/>
+      <c r="E141" s="7"/>
+      <c r="F141" s="7"/>
+      <c r="G141" s="7"/>
+      <c r="H141" s="14">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I141" s="13"/>
+      <c r="J141" s="10" t="s">
+        <v>73</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -2429,27 +4094,27 @@
     <mergeCell ref="H1:H2"/>
   </mergeCells>
   <conditionalFormatting sqref="J1 A1 J7:J9">
-    <cfRule type="cellIs" dxfId="4" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="47" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1">
-    <cfRule type="cellIs" dxfId="3" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="25" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7:I9">
-    <cfRule type="cellIs" dxfId="2" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="22" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J4">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="14" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="13" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2468,52 +4133,132 @@
     <hyperlink ref="J15" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
     <hyperlink ref="J16" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
     <hyperlink ref="J17" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="J18" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="J19" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="J20" r:id="rId17" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="J21" r:id="rId18" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="J22" r:id="rId19" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="J23" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="J24" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="J25" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="J26" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="J27" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="J28" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="J29" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="J30" r:id="rId27" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="J31" r:id="rId28" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="J32" r:id="rId29" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="J33" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="J34" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="J35" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="J36" r:id="rId33" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="J37" r:id="rId34" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="J38" r:id="rId35" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="J39" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
-    <hyperlink ref="J40" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
-    <hyperlink ref="J41" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
-    <hyperlink ref="J42" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
-    <hyperlink ref="J43" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
-    <hyperlink ref="J44" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
-    <hyperlink ref="J45" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
-    <hyperlink ref="J46" r:id="rId43" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
-    <hyperlink ref="J47" r:id="rId44" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
-    <hyperlink ref="J48" r:id="rId45" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
-    <hyperlink ref="J49" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
-    <hyperlink ref="J50" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
-    <hyperlink ref="J51" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
-    <hyperlink ref="J52" r:id="rId49" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
-    <hyperlink ref="J53" r:id="rId50" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
-    <hyperlink ref="J54" r:id="rId51" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
-    <hyperlink ref="J55" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
-    <hyperlink ref="J56" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
-    <hyperlink ref="J57" r:id="rId54" xr:uid="{00000000-0004-0000-0000-00007F000000}"/>
-    <hyperlink ref="J58" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000080000000}"/>
-    <hyperlink ref="J59" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000081000000}"/>
-    <hyperlink ref="J60" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000082000000}"/>
-    <hyperlink ref="J61" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000083000000}"/>
+    <hyperlink ref="J31" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="J32" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="J33" r:id="rId17" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="J34" r:id="rId18" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="J35" r:id="rId19" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="J36" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="J37" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="J38" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="J39" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="J40" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="J41" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="J42" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="J43" r:id="rId27" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="J44" r:id="rId28" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="J45" r:id="rId29" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="J46" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="J47" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="J48" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="J49" r:id="rId33" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="J50" r:id="rId34" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="J51" r:id="rId35" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="J52" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="J53" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="J54" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="J55" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="J56" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="J57" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="J58" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="J59" r:id="rId43" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="J60" r:id="rId44" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="J61" r:id="rId45" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="J62" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="J63" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="J64" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="J65" r:id="rId49" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="J66" r:id="rId50" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="J67" r:id="rId51" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="J68" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="J69" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="J131" r:id="rId54" xr:uid="{00000000-0004-0000-0000-00007F000000}"/>
+    <hyperlink ref="J132" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000080000000}"/>
+    <hyperlink ref="J133" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000081000000}"/>
+    <hyperlink ref="J134" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000082000000}"/>
+    <hyperlink ref="J135" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000083000000}"/>
+    <hyperlink ref="J18" r:id="rId59" xr:uid="{4E8668C1-4320-4173-BE6E-DF8C8B2C0D62}"/>
+    <hyperlink ref="J19" r:id="rId60" xr:uid="{89F6EB28-FA75-4A60-89FB-B1132238F0C2}"/>
+    <hyperlink ref="J20" r:id="rId61" xr:uid="{9EBDF7B3-AA79-4060-91D3-54A7570F3DC8}"/>
+    <hyperlink ref="J21" r:id="rId62" xr:uid="{C325517B-AF7B-41E1-A223-032BC266DCDF}"/>
+    <hyperlink ref="J22" r:id="rId63" xr:uid="{DB0AC518-FBD2-4EFE-A0BA-DFAB4811C68A}"/>
+    <hyperlink ref="J23" r:id="rId64" xr:uid="{A7BF0270-5996-4555-B7FC-6188CBE26233}"/>
+    <hyperlink ref="J24" r:id="rId65" xr:uid="{0A67EE46-7D8A-46EA-9BAF-41A5F5185E9A}"/>
+    <hyperlink ref="J25" r:id="rId66" xr:uid="{18E39A9F-9B4D-40B7-84EC-4270593754DA}"/>
+    <hyperlink ref="J26" r:id="rId67" xr:uid="{7BF83165-CC94-4775-9404-48D21F6ED71B}"/>
+    <hyperlink ref="J27" r:id="rId68" xr:uid="{BA77964F-F014-4BB6-A105-98F99FF81928}"/>
+    <hyperlink ref="J28" r:id="rId69" xr:uid="{EEF16008-214C-434C-9FB3-C3D3B7287A9B}"/>
+    <hyperlink ref="J29" r:id="rId70" xr:uid="{9E3D6DFE-0331-4A58-B841-E35D48211175}"/>
+    <hyperlink ref="J30" r:id="rId71" xr:uid="{C7D30FF6-0189-4DE5-ABD5-05C9A6301706}"/>
+    <hyperlink ref="J70" r:id="rId72" xr:uid="{B414A013-F258-488B-A334-093FC833EC09}"/>
+    <hyperlink ref="J71" r:id="rId73" xr:uid="{A7D82EBA-4590-403D-8AA9-77E7A38865DB}"/>
+    <hyperlink ref="J72" r:id="rId74" xr:uid="{3E5DE10A-8706-42E4-9E42-D54A563FF3B6}"/>
+    <hyperlink ref="J73" r:id="rId75" xr:uid="{9DCEB293-8757-452D-A11A-0FCA22FA40B0}"/>
+    <hyperlink ref="J74" r:id="rId76" xr:uid="{BB6A0066-061E-43E1-9E1B-05142B53E0B8}"/>
+    <hyperlink ref="J75" r:id="rId77" xr:uid="{04991AB2-31D6-434B-B7BC-0B94E649C16F}"/>
+    <hyperlink ref="J76" r:id="rId78" xr:uid="{8A891D0B-4F8B-4B45-ABE7-E63BF78AB4DE}"/>
+    <hyperlink ref="J77" r:id="rId79" xr:uid="{CC7BE096-6C58-40E0-9F06-BE92CF1C6143}"/>
+    <hyperlink ref="J78" r:id="rId80" xr:uid="{7FD32B47-E5D3-428C-A579-33A7BC3DFC42}"/>
+    <hyperlink ref="J79" r:id="rId81" xr:uid="{2DF97EBD-0C7D-491C-A515-EEFA13AA2F50}"/>
+    <hyperlink ref="J80" r:id="rId82" xr:uid="{FDE091C0-9815-479E-9557-9D181AA79A51}"/>
+    <hyperlink ref="J81" r:id="rId83" xr:uid="{B167A88C-8C1B-4BE1-99D4-426585D09B78}"/>
+    <hyperlink ref="J82" r:id="rId84" xr:uid="{76706B26-5E8D-44E1-ABEA-2951E03696D4}"/>
+    <hyperlink ref="J83" r:id="rId85" xr:uid="{E39F8F7A-3FB9-41E7-AB61-FF8C698E96C2}"/>
+    <hyperlink ref="J84" r:id="rId86" xr:uid="{4814FBDD-9851-4190-8ED8-45D11F46F94B}"/>
+    <hyperlink ref="J85" r:id="rId87" xr:uid="{8ED142B7-79FB-459B-A425-D56B641F77D5}"/>
+    <hyperlink ref="J86" r:id="rId88" xr:uid="{AE26D49C-4896-454A-A656-06E010CD42DE}"/>
+    <hyperlink ref="J87" r:id="rId89" xr:uid="{2D17EA3D-FB1B-40CB-BF91-A7AE73185753}"/>
+    <hyperlink ref="J88" r:id="rId90" xr:uid="{543A493A-E51A-4CFE-AEFD-B6A16003D36D}"/>
+    <hyperlink ref="J89" r:id="rId91" xr:uid="{72EE3E34-F65B-4BF0-AC1A-F4CAEEBEA1F7}"/>
+    <hyperlink ref="J90" r:id="rId92" xr:uid="{70918548-3436-4AAB-A3C7-B1BF8A2BFE00}"/>
+    <hyperlink ref="J91" r:id="rId93" xr:uid="{70BCF5C9-A489-4586-85C9-31F847B2250F}"/>
+    <hyperlink ref="J92" r:id="rId94" xr:uid="{067211E5-132E-43E5-B843-44FD7B108020}"/>
+    <hyperlink ref="J93" r:id="rId95" xr:uid="{93BD3322-685E-436E-BC58-2F3C989F517E}"/>
+    <hyperlink ref="J94" r:id="rId96" xr:uid="{55C4968E-4F5D-4276-B685-81C8F0674750}"/>
+    <hyperlink ref="J95" r:id="rId97" xr:uid="{0B30980A-CF51-4FD9-AF7A-1A69C83B74D4}"/>
+    <hyperlink ref="J96" r:id="rId98" xr:uid="{DFDDD71F-57BD-4017-B1E2-FA0858B43526}"/>
+    <hyperlink ref="J97" r:id="rId99" xr:uid="{A5902E1A-0E45-4E6B-888C-E722DDEAAD7B}"/>
+    <hyperlink ref="J98" r:id="rId100" xr:uid="{9E57F6C4-7025-4FB9-9C58-16D1E4F85FD3}"/>
+    <hyperlink ref="J99" r:id="rId101" xr:uid="{E9FA86BE-29E3-4FA1-BFD7-2AFC41D54364}"/>
+    <hyperlink ref="J100" r:id="rId102" xr:uid="{A970677E-F3D0-401D-A55E-70F9DA80D8FB}"/>
+    <hyperlink ref="J101" r:id="rId103" xr:uid="{5806128C-7622-4F77-AAA0-A8C3446328D2}"/>
+    <hyperlink ref="J102" r:id="rId104" xr:uid="{75397BEB-5B26-45C4-A028-2B3F0718667A}"/>
+    <hyperlink ref="J103" r:id="rId105" xr:uid="{CE6EBFCA-8D20-4532-B0D9-6033B654B951}"/>
+    <hyperlink ref="J104" r:id="rId106" xr:uid="{C4019CC2-DEC5-4D45-A114-05A9E0C1ED61}"/>
+    <hyperlink ref="J105" r:id="rId107" xr:uid="{59C4924A-464F-4D5F-8760-B117EB797F47}"/>
+    <hyperlink ref="J106" r:id="rId108" xr:uid="{0D73E69F-347C-450E-A320-2BD983E54784}"/>
+    <hyperlink ref="J107" r:id="rId109" xr:uid="{E091BA8D-16EB-46FD-9FCD-CA71F4667270}"/>
+    <hyperlink ref="J108" r:id="rId110" xr:uid="{4F9FA922-632A-4A28-9664-C82220BD576C}"/>
+    <hyperlink ref="J109" r:id="rId111" xr:uid="{D0F45767-220F-4F5A-ABEC-4BFA0FC97D3F}"/>
+    <hyperlink ref="J110" r:id="rId112" xr:uid="{F97CFFC8-4686-46B6-9A7D-CE018FA6C35B}"/>
+    <hyperlink ref="J111" r:id="rId113" xr:uid="{747DFF90-7C24-482C-9245-970B98EEF8D5}"/>
+    <hyperlink ref="J112" r:id="rId114" xr:uid="{9C146C40-6917-4C9A-B768-8B9A652C5E0D}"/>
+    <hyperlink ref="J113" r:id="rId115" xr:uid="{477CD2C2-4BFC-455C-86A3-F5117C6042F0}"/>
+    <hyperlink ref="J114" r:id="rId116" xr:uid="{ADE1B3F0-EED0-4BBF-8F6A-9F31BC8079CE}"/>
+    <hyperlink ref="J115" r:id="rId117" xr:uid="{A7EE92B1-25B7-40B8-ACBB-96C0E42F4131}"/>
+    <hyperlink ref="J116" r:id="rId118" xr:uid="{EED4691F-8783-4A5A-9CA7-9AFB3212A54F}"/>
+    <hyperlink ref="J117" r:id="rId119" xr:uid="{D27C0923-B5AE-47EF-80CE-C1AA62CD7023}"/>
+    <hyperlink ref="J118" r:id="rId120" xr:uid="{94D652E0-C17D-490B-B2B3-FD6BFB26A4BC}"/>
+    <hyperlink ref="J119" r:id="rId121" xr:uid="{D3583867-B4C1-4A1F-AD8A-21EA17A8ADD6}"/>
+    <hyperlink ref="J120" r:id="rId122" xr:uid="{202B7C35-36FE-40B2-8B2B-31EC3CFA16CC}"/>
+    <hyperlink ref="J121" r:id="rId123" xr:uid="{CE0DCE15-C754-4C01-AF1F-5BEAADAE0D61}"/>
+    <hyperlink ref="J122" r:id="rId124" xr:uid="{7FAEC53E-36A3-46F7-AB6B-8406F60D23EA}"/>
+    <hyperlink ref="J123" r:id="rId125" xr:uid="{9C1FAEC0-4947-4EB0-92D0-D06970C77B29}"/>
+    <hyperlink ref="J124" r:id="rId126" xr:uid="{8CF8212F-0BD5-457E-B7C8-4BBCCA52E411}"/>
+    <hyperlink ref="J125" r:id="rId127" xr:uid="{15952707-23C4-4E4B-B259-A947689C9A6D}"/>
+    <hyperlink ref="J126" r:id="rId128" xr:uid="{BDD91AE5-2211-45DA-AEED-C06186DA12F0}"/>
+    <hyperlink ref="J127" r:id="rId129" xr:uid="{D6973D93-EBDC-4CBD-9BDA-F0A8CF45BE9D}"/>
+    <hyperlink ref="J128" r:id="rId130" xr:uid="{1DF490CC-4F91-4884-A73D-AFECBCE62EA6}"/>
+    <hyperlink ref="J129" r:id="rId131" xr:uid="{78EDFB5E-03D7-4C01-B031-5EA094C952FB}"/>
+    <hyperlink ref="J130" r:id="rId132" xr:uid="{AD467689-D8FF-4D93-A5E9-ABD9E7695426}"/>
+    <hyperlink ref="J136" r:id="rId133" xr:uid="{E91E698D-0A29-4B75-8469-BC5E9249216F}"/>
+    <hyperlink ref="J137" r:id="rId134" xr:uid="{A3E025D5-5116-4187-82DF-C58EB49CD2FD}"/>
+    <hyperlink ref="J138" r:id="rId135" xr:uid="{D508B717-41E6-4508-B637-564992BD36D1}"/>
+    <hyperlink ref="J139" r:id="rId136" xr:uid="{EC2A2545-DF7B-4358-90C8-1835B589BB04}"/>
+    <hyperlink ref="J140" r:id="rId137" xr:uid="{44BE7B39-09C9-4B99-ADC3-2B1D3130D8C8}"/>
+    <hyperlink ref="J141" r:id="rId138" xr:uid="{36549C4A-0C17-4E0D-BCE1-0EFAE1637DF2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId59"/>
+  <pageSetup orientation="portrait" r:id="rId139"/>
 </worksheet>
 </file>